--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MutualFund.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MutualFund.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020-ETDR\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-91520\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>When user try to verify Mutual Fund Process</t>
-  </si>
-  <si>
     <t>SELECT CUSTOMER_PROFILE_ID FROM AMC_CUSTOMER_PROFILE L WHERE L.CNIC='{customer_cnic}'</t>
   </si>
   <si>
@@ -56,89 +53,156 @@
     <t>invest_option</t>
   </si>
   <si>
+    <t>Disclaimer: You have chosen to invest in Equity Related Scheme (High Risk Category). Your risk profile does not warrant you to invest in Equity Related Scheme. Kindly press "Next" to acknowledge that you understand the risk associated with this investment.</t>
+  </si>
+  <si>
+    <t>disclaimer_message</t>
+  </si>
+  <si>
+    <t>gl_account_query</t>
+  </si>
+  <si>
+    <t>tran_timing_query</t>
+  </si>
+  <si>
+    <t>tran_pass</t>
+  </si>
+  <si>
+    <t>pakistan2</t>
+  </si>
+  <si>
+    <t>success_msg</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 425</t>
+  </si>
+  <si>
+    <t>disclaimer_query</t>
+  </si>
+  <si>
+    <t>Select length(PP.POPUP_DISCLAIMER) from AMC_PRODUCT_PROFILE PP where PP.NAME_OF_FUND = '{invest_fund_name}'</t>
+  </si>
+  <si>
+    <t>SELECT GL_ACCOUNT_NO FROM AMC_PRODUCT_CHANNEL PP INNER JOIN AMC_PRODUCT_PROFILE CP ON PP.PRODUCT_ID = CP.PRODUCT_ID where CP.NAME_OF_FUND = '{invest_fund_name}'</t>
+  </si>
+  <si>
+    <t>Select CUT_OFF_TIME from AMC_PRODUCT_PROFILE PP where PP.NAME_OF_FUND = '{invest_fund_name}'</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>tran_date_query</t>
+  </si>
+  <si>
+    <t>tran_amount_query</t>
+  </si>
+  <si>
+    <t>from_acc_query</t>
+  </si>
+  <si>
+    <t>to_acc_query</t>
+  </si>
+  <si>
+    <t>fund_name_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>Select CREATED_ON FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>Select PRODUCT_CODE FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>Select TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>Select FROM_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>Select TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>GUID_query</t>
+  </si>
+  <si>
+    <t>SELECT TT.HOST_REFERENCE_NO FROM DC_TRANSACTION TT WHERE TT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>tran_amount_verify_query</t>
+  </si>
+  <si>
+    <t>SELECT TT.TRAN_AMOUNT FROM QAT_AMC.AMC_TRANSACTION TT WHERE TT.GUID='{GUID}'</t>
+  </si>
+  <si>
+    <t>folio_no_query</t>
+  </si>
+  <si>
+    <t>folio_no</t>
+  </si>
+  <si>
+    <t>SELECT CP.FOLIO_NO FROM AMC_CUSTOMER_PROFILE CP WHERE CP.CNIC = '{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>Fund_Names_query</t>
+  </si>
+  <si>
+    <t>SELECT PP.NAME_OF_FUND from QAT_AMC.AMC_PRODUCT_PROFILE PP INNER JOIN QAT_AMC.AMC_PRODUCT_CHANNEL PC ON PP.PRODUCT_ID = PC.PRODUCT_ID WHERE PP.IS_DELETED=0 AND PC.IS_ENABLED = 1 AND PC.CHANNEL_CODE = 'MB' ORDER BY (PP.NAME_OF_FUND)</t>
+  </si>
+  <si>
+    <t>db_val</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>4647900043701</t>
+  </si>
+  <si>
     <t>HBL Equity Fund</t>
   </si>
   <si>
-    <t>Disclaimer: You have chosen to invest in Equity Related Scheme (High Risk Category). Your risk profile does not warrant you to invest in Equity Related Scheme. Kindly press "Next" to acknowledge that you understand the risk associated with this investment.</t>
-  </si>
-  <si>
-    <t>disclaimer_message</t>
-  </si>
-  <si>
-    <t>gl_account_query</t>
-  </si>
-  <si>
-    <t>tran_timing_query</t>
-  </si>
-  <si>
-    <t>tran_pass</t>
-  </si>
-  <si>
-    <t>pakistan2</t>
-  </si>
-  <si>
-    <t>success_msg</t>
-  </si>
-  <si>
-    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 425</t>
-  </si>
-  <si>
-    <t>disclaimer_query</t>
-  </si>
-  <si>
-    <t>Select length(PP.POPUP_DISCLAIMER) from AMC_PRODUCT_PROFILE PP where PP.NAME_OF_FUND = '{invest_fund_name}'</t>
-  </si>
-  <si>
-    <t>SELECT GL_ACCOUNT_NO FROM AMC_PRODUCT_CHANNEL PP INNER JOIN AMC_PRODUCT_PROFILE CP ON PP.PRODUCT_ID = CP.PRODUCT_ID where CP.NAME_OF_FUND = '{invest_fund_name}'</t>
-  </si>
-  <si>
-    <t>Select CUT_OFF_TIME from AMC_PRODUCT_PROFILE PP where PP.NAME_OF_FUND = '{invest_fund_name}'</t>
-  </si>
-  <si>
-    <t>tran_type_query</t>
-  </si>
-  <si>
-    <t>tran_date_query</t>
-  </si>
-  <si>
-    <t>tran_amount_query</t>
-  </si>
-  <si>
-    <t>from_acc_query</t>
-  </si>
-  <si>
-    <t>to_acc_query</t>
-  </si>
-  <si>
-    <t>fund_name_query</t>
-  </si>
-  <si>
-    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>Select CREATED_ON FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>Select PRODUCT_CODE FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>Select TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>Select FROM_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>Select TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.CHANNEL_ID='2'and  DT.TRANSACTION_ID = '</t>
+    <t>9893</t>
+  </si>
+  <si>
+    <t>00476000949001</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>HBL-IFPF-Islamic Capital Preservation Plan</t>
+  </si>
+  <si>
+    <t>HBL Islamic Money Market Fund</t>
+  </si>
+  <si>
+    <t>When user try to verify Mutual Fund Process 1</t>
+  </si>
+  <si>
+    <t>When user try to verify Mutual Fund Process 2</t>
+  </si>
+  <si>
+    <t>When user try to verify Mutual Fund Process 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,10 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,146 +514,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="234.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="171" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="97.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="116.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="125.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="95.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="106" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="234.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="171" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="116.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="125.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="106" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="94.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="84.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="85" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="225.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="O3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="T4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>31</v>
+      <c r="U4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MutualFund.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MutualFund.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-91520\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="66">
   <si>
     <t>Case</t>
   </si>
@@ -158,18 +158,9 @@
     <t>DIGITAL_CHANNEL_SEC</t>
   </si>
   <si>
-    <t>4647900043701</t>
-  </si>
-  <si>
     <t>HBL Equity Fund</t>
   </si>
   <si>
-    <t>9893</t>
-  </si>
-  <si>
-    <t>00476000949001</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
@@ -179,13 +170,58 @@
     <t>HBL Islamic Money Market Fund</t>
   </si>
   <si>
-    <t>When user try to verify Mutual Fund Process 1</t>
-  </si>
-  <si>
-    <t>When user try to verify Mutual Fund Process 2</t>
-  </si>
-  <si>
-    <t>When user try to verify Mutual Fund Process 3</t>
+    <t>To verify that Customer can successfully apply for Mutual Fund Process 1</t>
+  </si>
+  <si>
+    <t>24460094903010</t>
+  </si>
+  <si>
+    <t>10437</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund Process 2</t>
+  </si>
+  <si>
+    <t>24460094904501</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund Process 3</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund with 0 amount</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>To verify that customer can not perform transaction greater than available account balance</t>
+  </si>
+  <si>
+    <t>To verify that customer can not perform transaction with invalid Transaction password</t>
+  </si>
+  <si>
+    <t>To Verify that customer can not apply for AMC less than initial investment minimum limit</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>HBL Islamic Equity Fund</t>
+  </si>
+  <si>
+    <t>To Verify that customer can not apply for AMC greater than initial investment maximum limit</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>To Verify that customer can not apply for AMC less than initial re investment minimum limit</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>To Verify that customer can not apply for AMC greater than initial re investment maximum limit</t>
   </si>
 </sst>
 </file>
@@ -228,12 +264,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,15 +556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -549,7 +591,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -625,24 +667,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -690,7 +732,7 @@
         <v>39</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>41</v>
@@ -699,24 +741,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>52</v>
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
@@ -764,7 +806,7 @@
         <v>39</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>41</v>
@@ -773,24 +815,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
@@ -838,7 +880,7 @@
         <v>39</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="X4" s="4" t="s">
         <v>41</v>
@@ -846,6 +888,602 @@
       <c r="Y4" s="4" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MutualFund.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MutualFund.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="123">
   <si>
     <t>Case</t>
   </si>
@@ -35,9 +35,6 @@
     <t>cust_profile_id_query</t>
   </si>
   <si>
-    <t>fund_name</t>
-  </si>
-  <si>
     <t>from_acc</t>
   </si>
   <si>
@@ -170,30 +167,207 @@
     <t>HBL Islamic Money Market Fund</t>
   </si>
   <si>
-    <t>To verify that Customer can successfully apply for Mutual Fund Process 1</t>
-  </si>
-  <si>
     <t>24460094903010</t>
   </si>
   <si>
     <t>10437</t>
   </si>
   <si>
-    <t>To verify that Customer can successfully apply for Mutual Fund Process 2</t>
-  </si>
-  <si>
-    <t>24460094904501</t>
-  </si>
-  <si>
-    <t>To verify that Customer can successfully apply for Mutual Fund Process 3</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>HBL Islamic Equity Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Cash Fund</t>
+  </si>
+  <si>
+    <t>HBL Cash Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Energy Fund</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>HBL Energy Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Equity Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Financial Planning Fund-Active Allocation Plan</t>
+  </si>
+  <si>
+    <t>HBL Financial Planning Fund-Active Allocation Plan</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Financial Planning Fund-Conservative Allocation Plan</t>
+  </si>
+  <si>
+    <t>HBL Financial Planning Fund-Conservative Allocation Plan</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Government Securities Fund</t>
+  </si>
+  <si>
+    <t>HBL Government Securities Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund HBL Growth Fund</t>
+  </si>
+  <si>
+    <t>HBL Growth Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Income Fund</t>
+  </si>
+  <si>
+    <t>HBL Income Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund HBL Investment Fund</t>
+  </si>
+  <si>
+    <t>HBL Investment Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Asset Allocation Fund</t>
+  </si>
+  <si>
+    <t>HBL Islamic Asset Allocation Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Equity Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Financial Planning Fund-Active Allocation Plan</t>
+  </si>
+  <si>
+    <t>HBL Islamic Financial Planning Fund-Active Allocation Plan</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Financial Planning Fund-Conservative Allocation Plan</t>
+  </si>
+  <si>
+    <t>HBL Islamic Financial Planning Fund-Conservative Allocation Plan</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund HBL Islamic Financial Planning Fund-Strategic Allocation Plan</t>
+  </si>
+  <si>
+    <t>HBL Islamic Financial Planning Fund-Strategic Allocation Plan</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Income Fund</t>
+  </si>
+  <si>
+    <t>HBL Islamic Income Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Money Market Fund</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Pension Fund</t>
+  </si>
+  <si>
+    <t>HBL Islamic Pension Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Stock Fund</t>
+  </si>
+  <si>
+    <t>HBL Islamic Stock Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Money Market Fund</t>
+  </si>
+  <si>
+    <t>HBL Money Market Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>HBL Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Pension Fund</t>
+  </si>
+  <si>
+    <t>HBL Pension Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Stock Fund</t>
+  </si>
+  <si>
+    <t>HBL Stock Fund</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund HBL-FPF-Special Income Plan</t>
+  </si>
+  <si>
+    <t>HBL-FPF-Special Income Plan</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund HBL-IFPF-Islamic Capital Preservation Plan</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund with Locked Transaction Password</t>
+  </si>
+  <si>
+    <t>22647000001903</t>
+  </si>
+  <si>
+    <t>16699</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund with Null Transaction Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that PSD(Y) Customer can successfully apply for Mutual Fund </t>
+  </si>
+  <si>
+    <t>00476000135901</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that PSD(N) Customer can successfully apply for Mutual Fund </t>
+  </si>
+  <si>
+    <t>22647000000401</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>To verify that PSD(N) Customer can not apply for Mutual Fund with De linked account</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund with Decimal value</t>
+  </si>
+  <si>
+    <t>1200.45</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund with No mutual Fund</t>
+  </si>
+  <si>
+    <t>23397900303403</t>
   </si>
   <si>
     <t>To verify that Customer can not apply for Mutual Fund with 0 amount</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>To verify that customer can not perform transaction greater than available account balance</t>
   </si>
   <si>
@@ -203,25 +377,22 @@
     <t>To Verify that customer can not apply for AMC less than initial investment minimum limit</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>HBL Islamic Equity Fund</t>
-  </si>
-  <si>
     <t>To Verify that customer can not apply for AMC greater than initial investment maximum limit</t>
   </si>
   <si>
-    <t>600000</t>
+    <t>500001</t>
   </si>
   <si>
     <t>To Verify that customer can not apply for AMC less than initial re investment minimum limit</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>To Verify that customer can not apply for AMC greater than initial re investment maximum limit</t>
+  </si>
+  <si>
+    <t>To Verify that customer can not apply for AMC with investment limit while reinvestments limits are applicable</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -556,41 +727,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="90.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="234.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="171" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="116.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="125.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="106" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="94.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="84.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="85" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="225.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="55.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="234.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="171" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="116.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="125.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="106" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="94.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="84.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="85" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="225.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -607,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -622,13 +792,13 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>21</v>
@@ -646,69 +816,66 @@
         <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="W1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>30</v>
@@ -717,72 +884,72 @@
         <v>31</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>30</v>
@@ -791,72 +958,72 @@
         <v>31</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>30</v>
@@ -865,72 +1032,69 @@
         <v>31</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>30</v>
@@ -939,72 +1103,69 @@
         <v>31</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>30</v>
@@ -1013,72 +1174,69 @@
         <v>31</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>30</v>
@@ -1087,72 +1245,72 @@
         <v>31</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>30</v>
@@ -1161,72 +1319,69 @@
         <v>31</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>30</v>
@@ -1235,72 +1390,72 @@
         <v>31</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>30</v>
@@ -1309,72 +1464,69 @@
         <v>31</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>30</v>
@@ -1383,107 +1535,2286 @@
         <v>31</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="1" t="s">
+      <c r="P12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MutualFund.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MutualFund.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="126">
   <si>
     <t>Case</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -727,3094 +736,3242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="90.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="234.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="171" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="116.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="125.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="106" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="94.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="84.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="85" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="225.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="234.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="175" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="116.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="112.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="106" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="98.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="96" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="98.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="84.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="85" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="251.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="X12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="Y12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="X13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Y13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="X14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="Y14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="X16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="Y16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="Y17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="X18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="Y18" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="X19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="X20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="Y20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="X21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="X22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="X23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Y23" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W24" s="4" t="s">
+      <c r="X24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="Y24" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="V25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="X25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="Y25" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W26" s="4" t="s">
+      <c r="X26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="Y26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="U27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="W27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W27" s="4" t="s">
+      <c r="X27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="Y27" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="V28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W28" s="4" t="s">
+      <c r="X28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="Y28" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="X29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="Y29" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="V30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W30" s="4" t="s">
+      <c r="X30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="Y30" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="V31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="X31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X31" s="4" t="s">
+      <c r="Y31" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="U32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="V32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="W32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="X32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="Y32" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="V33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="X33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X33" s="4" t="s">
+      <c r="Y33" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="V34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="X34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X34" s="4" t="s">
+      <c r="Y34" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="U35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="V35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="W35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W35" s="4" t="s">
+      <c r="X35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X35" s="4" t="s">
+      <c r="Y35" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="U36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="V36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W36" s="4" t="s">
+      <c r="X36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X36" s="4" t="s">
+      <c r="Y36" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="V37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="W37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W37" s="4" t="s">
+      <c r="X37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X37" s="4" t="s">
+      <c r="Y37" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="U38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="1" t="s">
+      <c r="V38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="W38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W38" s="4" t="s">
+      <c r="X38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X38" s="4" t="s">
+      <c r="Y38" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="T39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="U39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="V39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="W39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W39" s="4" t="s">
+      <c r="X39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X39" s="4" t="s">
+      <c r="Y39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="U40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="V40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="W40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="X40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X40" s="4" t="s">
+      <c r="Y40" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N41" s="3"/>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
-      <c r="W41" s="4"/>
+      <c r="S41" s="3"/>
       <c r="X41" s="4"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N42" s="3"/>
+      <c r="Y41" s="4"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
-      <c r="W42" s="4"/>
+      <c r="S42" s="3"/>
       <c r="X42" s="4"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N47" s="3"/>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
-      <c r="W47" s="4"/>
+      <c r="S47" s="3"/>
       <c r="X47" s="4"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N48" s="3"/>
+      <c r="Y47" s="4"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-      <c r="W48" s="4"/>
+      <c r="S48" s="3"/>
       <c r="X48" s="4"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N49" s="3"/>
+      <c r="Y48" s="4"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
-      <c r="W49" s="4"/>
+      <c r="S49" s="3"/>
       <c r="X49" s="4"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49" s="4"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
